--- a/bgStatic/ExportTemplates.xlsx
+++ b/bgStatic/ExportTemplates.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gao/Develop/ECDS/ecds-server/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gao/Develop/TMDT/tmdt-server/bgStatic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F5E95-0EE8-7B4C-A1A8-E196DC7CF181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DB6D26-8724-374C-A74D-1AD750B03FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28380" windowHeight="16480" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28380" windowHeight="16480" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="洗消数据" sheetId="1" r:id="rId1"/>
+    <sheet name="体温数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>内窥镜清洗消毒系统洗消导出数据表</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>导出日期：</t>
   </si>
@@ -39,44 +36,39 @@
     <t>ID</t>
   </si>
   <si>
-    <t>记录编号</t>
-  </si>
-  <si>
-    <t>内窥镜编号</t>
-  </si>
-  <si>
-    <t>内窥镜类型</t>
+    <t>设备编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>床号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>操作员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>病人</t>
-  </si>
-  <si>
-    <t>医生</t>
-  </si>
-  <si>
-    <t>是否传染病</t>
-  </si>
-  <si>
-    <t>开始时间</t>
-  </si>
-  <si>
-    <t>结束时间</t>
-  </si>
-  <si>
-    <t>总耗时（s)</t>
-  </si>
-  <si>
-    <t>内窥镜信息</t>
-  </si>
-  <si>
-    <t>手工时长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>洗消机时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温监测管理导出数据表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -522,31 +514,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O5"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="38">
+    <row r="2" spans="1:9" ht="38">
       <c r="A2" s="7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -556,14 +543,8 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" ht="18">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -573,49 +554,37 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="21">
+    <row r="4" spans="1:9" ht="21">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="23">
+    <row r="5" spans="1:9" ht="23">
       <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>7</v>
@@ -628,26 +597,11 @@
       </c>
       <c r="I5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/bgStatic/ExportTemplates.xlsx
+++ b/bgStatic/ExportTemplates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gao/Develop/TMDT/tmdt-server/bgStatic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DB6D26-8724-374C-A74D-1AD750B03FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A827935-CAA1-224A-B153-81806C317F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28380" windowHeight="16480" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>体温监测管理导出数据表</t>
+    <t>温度控制追溯导出数据表</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
